--- a/biology/Zoologie/Bernieridae/Bernieridae.xlsx
+++ b/biology/Zoologie/Bernieridae/Bernieridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bernieridae (ou berniéridés en français) sont une famille de passereaux malgaches constituée de onze espèces réparties en huit genres.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Bernieridae a été créée en 2010 par Alice Cibois (d), Normand David (d), Steven M. S. Gregory (d) et Éric Pasquet (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Bernieridae a été créée en 2010 par Alice Cibois (d), Normand David (d), Steven M. S. Gregory (d) et Éric Pasquet (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[2] (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) (ordre phylogénique) :
 genre Oxylabes Sharpe, 1870
 Oxylabes madagascariensis (Gmelin, JF, 1789) – Oxylabe à gorge blanche
 genre Bernieria Pucheran, 1855
@@ -591,7 +607,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Alice Cibois, Normand David, Steven M. S. Gregory et Éric Pasquet, « Bernieridae (Aves: Passeriformes): a family-group name for the Malagasy sylvioid radiation », Zootaxa, Magnolia Press (d), vol. 2554, no 1,‎ 30 juillet 2010, p. 65-68 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2554.1.6, lire en ligne)</t>
         </is>
